--- a/src/assets/边民账户录入模板本.xlsx
+++ b/src/assets/边民账户录入模板本.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="边民账户" sheetId="1" r:id="rId1"/>
@@ -14,16 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
-  <si>
-    <t>填写须知：
- &lt;1&gt;不能在本excel表中对边民账号信息进行删除、修改;
- &lt;2&gt;红色*字段为必填字段； 
- &lt;3&gt;身份证号需要填写系统已经录入的边民身份证；
- &lt;4&gt;账号必须唯一 ，不能重复；
- &lt;5&gt;手机号码：请填写11位国内手机号码；
- &lt;6&gt;类型请选择一种填写：银联卡、支付宝、微信、Q码</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
   <si>
     <r>
       <rPr>
@@ -159,6 +150,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>*</t>
     </r>
     <r>
@@ -193,11 +191,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,33 +204,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -256,21 +241,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,24 +279,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -323,7 +302,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,6 +319,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,6 +370,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -414,19 +442,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,7 +478,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,48 +502,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -534,19 +532,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,6 +561,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -593,15 +597,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -613,15 +608,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,10 +669,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -695,147 +681,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1204,13 +1184,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="20.375" customWidth="1"/>
     <col min="2" max="2" width="21.4083333333333" customWidth="1"/>
@@ -1218,73 +1198,59 @@
     <col min="5" max="5" width="33.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="97" customHeight="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3">
+      <c r="F2">
         <v>598989</v>
       </c>
-      <c r="G3">
+      <c r="G2">
         <v>8000</v>
       </c>
-      <c r="H3">
+      <c r="H2">
         <v>300.02</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
